--- a/natmiOut/OldD4/LR-pairs_lrc2p/Efna2-Epha3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Efna2-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,10 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>4.03393674090764</v>
+        <v>1.186026</v>
       </c>
       <c r="H2">
-        <v>4.03393674090764</v>
+        <v>3.558078</v>
       </c>
       <c r="I2">
-        <v>0.7096733959659056</v>
+        <v>0.1428187553521992</v>
       </c>
       <c r="J2">
-        <v>0.7096733959659056</v>
+        <v>0.1524379446999992</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>27.5280706978521</v>
+        <v>0.030493</v>
       </c>
       <c r="N2">
-        <v>27.5280706978521</v>
+        <v>0.091479</v>
       </c>
       <c r="O2">
-        <v>0.9924148126284865</v>
+        <v>0.001018637778668347</v>
       </c>
       <c r="P2">
-        <v>0.9924148126284865</v>
+        <v>0.001021037349570579</v>
       </c>
       <c r="Q2">
-        <v>111.0464957943686</v>
+        <v>0.036165490818</v>
       </c>
       <c r="R2">
-        <v>111.0464957943686</v>
+        <v>0.325489417362</v>
       </c>
       <c r="S2">
-        <v>0.7042903902849259</v>
+        <v>0.0001454805797041423</v>
       </c>
       <c r="T2">
-        <v>0.7042903902849259</v>
+        <v>0.0001556448350304738</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,309 +587,1177 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>4.03393674090764</v>
+        <v>1.186026</v>
       </c>
       <c r="H3">
-        <v>4.03393674090764</v>
+        <v>3.558078</v>
       </c>
       <c r="I3">
-        <v>0.7096733959659056</v>
+        <v>0.1428187553521992</v>
       </c>
       <c r="J3">
-        <v>0.7096733959659056</v>
+        <v>0.1524379446999992</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.21040150908917</v>
+        <v>29.65321533333333</v>
       </c>
       <c r="N3">
-        <v>0.21040150908917</v>
+        <v>88.95964599999999</v>
       </c>
       <c r="O3">
-        <v>0.007585187371513531</v>
+        <v>0.990584245483253</v>
       </c>
       <c r="P3">
-        <v>0.007585187371513531</v>
+        <v>0.9929177316168408</v>
       </c>
       <c r="Q3">
-        <v>0.8487463778572155</v>
+        <v>35.169484368932</v>
       </c>
       <c r="R3">
-        <v>0.8487463778572155</v>
+        <v>316.525359320388</v>
       </c>
       <c r="S3">
-        <v>0.005383005680979709</v>
+        <v>0.1414740090114155</v>
       </c>
       <c r="T3">
-        <v>0.005383005680979709</v>
+        <v>0.1513583382638566</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.507537865534903</v>
+        <v>1.186026</v>
       </c>
       <c r="H4">
-        <v>0.507537865534903</v>
+        <v>3.558078</v>
       </c>
       <c r="I4">
-        <v>0.08928898585910881</v>
+        <v>0.1428187553521992</v>
       </c>
       <c r="J4">
-        <v>0.08928898585910881</v>
+        <v>0.1524379446999992</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>27.5280706978521</v>
+        <v>0.04031433333333333</v>
       </c>
       <c r="N4">
-        <v>27.5280706978521</v>
+        <v>0.120943</v>
       </c>
       <c r="O4">
-        <v>0.9924148126284865</v>
+        <v>0.001346725574891351</v>
       </c>
       <c r="P4">
-        <v>0.9924148126284865</v>
+        <v>0.001349898011227873</v>
       </c>
       <c r="Q4">
-        <v>13.97153824428176</v>
+        <v>0.047813847506</v>
       </c>
       <c r="R4">
-        <v>13.97153824428176</v>
+        <v>0.430324627554</v>
       </c>
       <c r="S4">
-        <v>0.08861171217115506</v>
+        <v>0.0001923376704069576</v>
       </c>
       <c r="T4">
-        <v>0.08861171217115506</v>
+        <v>0.0002057756783861934</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.507537865534903</v>
+        <v>1.186026</v>
       </c>
       <c r="H5">
-        <v>0.507537865534903</v>
+        <v>3.558078</v>
       </c>
       <c r="I5">
-        <v>0.08928898585910881</v>
+        <v>0.1428187553521992</v>
       </c>
       <c r="J5">
-        <v>0.08928898585910881</v>
+        <v>0.1524379446999992</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.21040150908917</v>
+        <v>0.211054</v>
       </c>
       <c r="N5">
-        <v>0.21040150908917</v>
+        <v>0.422108</v>
       </c>
       <c r="O5">
-        <v>0.007585187371513531</v>
+        <v>0.007050391163187267</v>
       </c>
       <c r="P5">
-        <v>0.007585187371513531</v>
+        <v>0.00471133302236074</v>
       </c>
       <c r="Q5">
-        <v>0.1067867328284398</v>
+        <v>0.250315531404</v>
       </c>
       <c r="R5">
-        <v>0.1067867328284398</v>
+        <v>1.501893188424</v>
       </c>
       <c r="S5">
-        <v>0.0006772736879537625</v>
+        <v>0.001006928090672549</v>
       </c>
       <c r="T5">
-        <v>0.0006772736879537625</v>
+        <v>0.0007181859227259066</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.142741208661</v>
+        <v>4.393048666666667</v>
       </c>
       <c r="H6">
-        <v>1.142741208661</v>
+        <v>13.179146</v>
       </c>
       <c r="I6">
-        <v>0.2010376181749855</v>
+        <v>0.5290016768392695</v>
       </c>
       <c r="J6">
-        <v>0.2010376181749855</v>
+        <v>0.5646312220084034</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>27.5280706978521</v>
+        <v>0.030493</v>
       </c>
       <c r="N6">
-        <v>27.5280706978521</v>
+        <v>0.091479</v>
       </c>
       <c r="O6">
-        <v>0.9924148126284865</v>
+        <v>0.001018637778668347</v>
       </c>
       <c r="P6">
-        <v>0.9924148126284865</v>
+        <v>0.001021037349570579</v>
       </c>
       <c r="Q6">
-        <v>31.45746078136897</v>
+        <v>0.1339572329926667</v>
       </c>
       <c r="R6">
-        <v>31.45746078136897</v>
+        <v>1.205615096934</v>
       </c>
       <c r="S6">
-        <v>0.1995127101724054</v>
+        <v>0.0005388610930073843</v>
       </c>
       <c r="T6">
-        <v>0.1995127101724054</v>
+        <v>0.0005765095664042576</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4.393048666666667</v>
+      </c>
+      <c r="H7">
+        <v>13.179146</v>
+      </c>
+      <c r="I7">
+        <v>0.5290016768392695</v>
+      </c>
+      <c r="J7">
+        <v>0.5646312220084034</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>29.65321533333333</v>
+      </c>
+      <c r="N7">
+        <v>88.95964599999999</v>
+      </c>
+      <c r="O7">
+        <v>0.990584245483253</v>
+      </c>
+      <c r="P7">
+        <v>0.9929177316168408</v>
+      </c>
+      <c r="Q7">
+        <v>130.2680180824796</v>
+      </c>
+      <c r="R7">
+        <v>1172.412162742316</v>
+      </c>
+      <c r="S7">
+        <v>0.5240207269112034</v>
+      </c>
+      <c r="T7">
+        <v>0.5606323521566288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.393048666666667</v>
+      </c>
+      <c r="H8">
+        <v>13.179146</v>
+      </c>
+      <c r="I8">
+        <v>0.5290016768392695</v>
+      </c>
+      <c r="J8">
+        <v>0.5646312220084034</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.04031433333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.120943</v>
+      </c>
+      <c r="O8">
+        <v>0.001346725574891351</v>
+      </c>
+      <c r="P8">
+        <v>0.001349898011227873</v>
+      </c>
+      <c r="Q8">
+        <v>0.1771028282975556</v>
+      </c>
+      <c r="R8">
+        <v>1.593925454678</v>
+      </c>
+      <c r="S8">
+        <v>0.0007124200873598538</v>
+      </c>
+      <c r="T8">
+        <v>0.0007621945636663073</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.393048666666667</v>
+      </c>
+      <c r="H9">
+        <v>13.179146</v>
+      </c>
+      <c r="I9">
+        <v>0.5290016768392695</v>
+      </c>
+      <c r="J9">
+        <v>0.5646312220084034</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.211054</v>
+      </c>
+      <c r="N9">
+        <v>0.422108</v>
+      </c>
+      <c r="O9">
+        <v>0.007050391163187267</v>
+      </c>
+      <c r="P9">
+        <v>0.00471133302236074</v>
+      </c>
+      <c r="Q9">
+        <v>0.9271704932946668</v>
+      </c>
+      <c r="R9">
+        <v>5.563022959768001</v>
+      </c>
+      <c r="S9">
+        <v>0.003729668747698832</v>
+      </c>
+      <c r="T9">
+        <v>0.002660165721704089</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.785643</v>
+      </c>
+      <c r="H10">
+        <v>2.356929</v>
+      </c>
+      <c r="I10">
+        <v>0.09460547695511548</v>
+      </c>
+      <c r="J10">
+        <v>0.1009773851399054</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.030493</v>
+      </c>
+      <c r="N10">
+        <v>0.091479</v>
+      </c>
+      <c r="O10">
+        <v>0.001018637778668347</v>
+      </c>
+      <c r="P10">
+        <v>0.001021037349570579</v>
+      </c>
+      <c r="Q10">
+        <v>0.023956611999</v>
+      </c>
+      <c r="R10">
+        <v>0.215609507991</v>
+      </c>
+      <c r="S10">
+        <v>9.636871289541835E-05</v>
+      </c>
+      <c r="T10">
+        <v>0.0001031016816898167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.785643</v>
+      </c>
+      <c r="H11">
+        <v>2.356929</v>
+      </c>
+      <c r="I11">
+        <v>0.09460547695511548</v>
+      </c>
+      <c r="J11">
+        <v>0.1009773851399054</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>29.65321533333333</v>
+      </c>
+      <c r="N11">
+        <v>88.95964599999999</v>
+      </c>
+      <c r="O11">
+        <v>0.990584245483253</v>
+      </c>
+      <c r="P11">
+        <v>0.9929177316168408</v>
+      </c>
+      <c r="Q11">
+        <v>23.296841054126</v>
+      </c>
+      <c r="R11">
+        <v>209.671569487134</v>
+      </c>
+      <c r="S11">
+        <v>0.09371469500816634</v>
+      </c>
+      <c r="T11">
+        <v>0.100262236197715</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.785643</v>
+      </c>
+      <c r="H12">
+        <v>2.356929</v>
+      </c>
+      <c r="I12">
+        <v>0.09460547695511548</v>
+      </c>
+      <c r="J12">
+        <v>0.1009773851399054</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.04031433333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.120943</v>
+      </c>
+      <c r="O12">
+        <v>0.001346725574891351</v>
+      </c>
+      <c r="P12">
+        <v>0.001349898011227873</v>
+      </c>
+      <c r="Q12">
+        <v>0.031672673783</v>
+      </c>
+      <c r="R12">
+        <v>0.285054064047</v>
+      </c>
+      <c r="S12">
+        <v>0.0001274076153402484</v>
+      </c>
+      <c r="T12">
+        <v>0.0001363091713793493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.142741208661</v>
-      </c>
-      <c r="H7">
-        <v>1.142741208661</v>
-      </c>
-      <c r="I7">
-        <v>0.2010376181749855</v>
-      </c>
-      <c r="J7">
-        <v>0.2010376181749855</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.21040150908917</v>
-      </c>
-      <c r="N7">
-        <v>0.21040150908917</v>
-      </c>
-      <c r="O7">
-        <v>0.007585187371513531</v>
-      </c>
-      <c r="P7">
-        <v>0.007585187371513531</v>
-      </c>
-      <c r="Q7">
-        <v>0.2404344748006565</v>
-      </c>
-      <c r="R7">
-        <v>0.2404344748006565</v>
-      </c>
-      <c r="S7">
-        <v>0.001524908002580059</v>
-      </c>
-      <c r="T7">
-        <v>0.001524908002580059</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.785643</v>
+      </c>
+      <c r="H13">
+        <v>2.356929</v>
+      </c>
+      <c r="I13">
+        <v>0.09460547695511548</v>
+      </c>
+      <c r="J13">
+        <v>0.1009773851399054</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.211054</v>
+      </c>
+      <c r="N13">
+        <v>0.422108</v>
+      </c>
+      <c r="O13">
+        <v>0.007050391163187267</v>
+      </c>
+      <c r="P13">
+        <v>0.00471133302236074</v>
+      </c>
+      <c r="Q13">
+        <v>0.165813097722</v>
+      </c>
+      <c r="R13">
+        <v>0.9948785863320001</v>
+      </c>
+      <c r="S13">
+        <v>0.0006670056187134629</v>
+      </c>
+      <c r="T13">
+        <v>0.0004757380891212752</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.3676123333333334</v>
+      </c>
+      <c r="H14">
+        <v>1.102837</v>
+      </c>
+      <c r="I14">
+        <v>0.04426710367123859</v>
+      </c>
+      <c r="J14">
+        <v>0.04724860040142825</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.030493</v>
+      </c>
+      <c r="N14">
+        <v>0.091479</v>
+      </c>
+      <c r="O14">
+        <v>0.001018637778668347</v>
+      </c>
+      <c r="P14">
+        <v>0.001021037349570579</v>
+      </c>
+      <c r="Q14">
+        <v>0.01120960288033333</v>
+      </c>
+      <c r="R14">
+        <v>0.100886425923</v>
+      </c>
+      <c r="S14">
+        <v>4.509214415175192E-05</v>
+      </c>
+      <c r="T14">
+        <v>4.824258572479372E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.3676123333333334</v>
+      </c>
+      <c r="H15">
+        <v>1.102837</v>
+      </c>
+      <c r="I15">
+        <v>0.04426710367123859</v>
+      </c>
+      <c r="J15">
+        <v>0.04724860040142825</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>29.65321533333333</v>
+      </c>
+      <c r="N15">
+        <v>88.95964599999999</v>
+      </c>
+      <c r="O15">
+        <v>0.990584245483253</v>
+      </c>
+      <c r="P15">
+        <v>0.9929177316168408</v>
+      </c>
+      <c r="Q15">
+        <v>10.90088767952244</v>
+      </c>
+      <c r="R15">
+        <v>98.107989115702</v>
+      </c>
+      <c r="S15">
+        <v>0.04385029548990282</v>
+      </c>
+      <c r="T15">
+        <v>0.0469139731326567</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.3676123333333334</v>
+      </c>
+      <c r="H16">
+        <v>1.102837</v>
+      </c>
+      <c r="I16">
+        <v>0.04426710367123859</v>
+      </c>
+      <c r="J16">
+        <v>0.04724860040142825</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.04031433333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.120943</v>
+      </c>
+      <c r="O16">
+        <v>0.001346725574891351</v>
+      </c>
+      <c r="P16">
+        <v>0.001349898011227873</v>
+      </c>
+      <c r="Q16">
+        <v>0.01482004614344445</v>
+      </c>
+      <c r="R16">
+        <v>0.133380415291</v>
+      </c>
+      <c r="S16">
+        <v>5.961564064042383E-05</v>
+      </c>
+      <c r="T16">
+        <v>6.378079171518847E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.3676123333333334</v>
+      </c>
+      <c r="H17">
+        <v>1.102837</v>
+      </c>
+      <c r="I17">
+        <v>0.04426710367123859</v>
+      </c>
+      <c r="J17">
+        <v>0.04724860040142825</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.211054</v>
+      </c>
+      <c r="N17">
+        <v>0.422108</v>
+      </c>
+      <c r="O17">
+        <v>0.007050391163187267</v>
+      </c>
+      <c r="P17">
+        <v>0.00471133302236074</v>
+      </c>
+      <c r="Q17">
+        <v>0.07758605339933335</v>
+      </c>
+      <c r="R17">
+        <v>0.465516320396</v>
+      </c>
+      <c r="S17">
+        <v>0.0003121003965435952</v>
+      </c>
+      <c r="T17">
+        <v>0.0002226038913315758</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.5720835</v>
+      </c>
+      <c r="H18">
+        <v>3.144167</v>
+      </c>
+      <c r="I18">
+        <v>0.1893069871821773</v>
+      </c>
+      <c r="J18">
+        <v>0.1347048477502636</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.030493</v>
+      </c>
+      <c r="N18">
+        <v>0.091479</v>
+      </c>
+      <c r="O18">
+        <v>0.001018637778668347</v>
+      </c>
+      <c r="P18">
+        <v>0.001021037349570579</v>
+      </c>
+      <c r="Q18">
+        <v>0.04793754216550001</v>
+      </c>
+      <c r="R18">
+        <v>0.2876252529930001</v>
+      </c>
+      <c r="S18">
+        <v>0.0001928352489096504</v>
+      </c>
+      <c r="T18">
+        <v>0.0001375386807212376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.5720835</v>
+      </c>
+      <c r="H19">
+        <v>3.144167</v>
+      </c>
+      <c r="I19">
+        <v>0.1893069871821773</v>
+      </c>
+      <c r="J19">
+        <v>0.1347048477502636</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>29.65321533333333</v>
+      </c>
+      <c r="N19">
+        <v>88.95964599999999</v>
+      </c>
+      <c r="O19">
+        <v>0.990584245483253</v>
+      </c>
+      <c r="P19">
+        <v>0.9929177316168408</v>
+      </c>
+      <c r="Q19">
+        <v>46.61733054748034</v>
+      </c>
+      <c r="R19">
+        <v>279.703983284882</v>
+      </c>
+      <c r="S19">
+        <v>0.1875245190625649</v>
+      </c>
+      <c r="T19">
+        <v>0.1337508318659837</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.5720835</v>
+      </c>
+      <c r="H20">
+        <v>3.144167</v>
+      </c>
+      <c r="I20">
+        <v>0.1893069871821773</v>
+      </c>
+      <c r="J20">
+        <v>0.1347048477502636</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.04031433333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.120943</v>
+      </c>
+      <c r="O20">
+        <v>0.001346725574891351</v>
+      </c>
+      <c r="P20">
+        <v>0.001349898011227873</v>
+      </c>
+      <c r="Q20">
+        <v>0.06337749824683334</v>
+      </c>
+      <c r="R20">
+        <v>0.380264989481</v>
+      </c>
+      <c r="S20">
+        <v>0.0002549445611438673</v>
+      </c>
+      <c r="T20">
+        <v>0.0001818378060808343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.5720835</v>
+      </c>
+      <c r="H21">
+        <v>3.144167</v>
+      </c>
+      <c r="I21">
+        <v>0.1893069871821773</v>
+      </c>
+      <c r="J21">
+        <v>0.1347048477502636</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.211054</v>
+      </c>
+      <c r="N21">
+        <v>0.422108</v>
+      </c>
+      <c r="O21">
+        <v>0.007050391163187267</v>
+      </c>
+      <c r="P21">
+        <v>0.00471133302236074</v>
+      </c>
+      <c r="Q21">
+        <v>0.3317945110090001</v>
+      </c>
+      <c r="R21">
+        <v>1.327178044036</v>
+      </c>
+      <c r="S21">
+        <v>0.001334688309558828</v>
+      </c>
+      <c r="T21">
+        <v>0.0006346393974778928</v>
       </c>
     </row>
   </sheetData>
